--- a/kt-pow-curves.xlsx
+++ b/kt-pow-curves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itsacid-my.sharepoint.com/personal/5018201053_student_its_ac_id/Documents/Dokumen/POW CURVES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{142E74F7-1F5C-4A55-897E-3B004E3A34A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F28684F-409D-4C3E-BE70-D46313110DBA}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{142E74F7-1F5C-4A55-897E-3B004E3A34A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BA9E8B0-F64E-4437-8452-E63DA9CA414A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{63827FE7-560A-43F0-A5C8-6D6526FA22D2}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{63827FE7-560A-43F0-A5C8-6D6526FA22D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,6 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,6 +109,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,11 +414,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255993F2-74C0-4258-9FDF-F908906A3934}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -436,7 +447,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>8.8049600000000006E-3</v>
       </c>
       <c r="C2">
@@ -456,8 +467,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.20455400000000001</v>
+      <c r="B3" s="2">
+        <v>-0.20455400000000001</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -476,7 +487,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.166351</v>
       </c>
       <c r="C4">
@@ -496,7 +507,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.158114</v>
       </c>
       <c r="C5">
@@ -516,8 +527,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.14758099999999999</v>
+      <c r="B6" s="1">
+        <v>-0.14758099999999999</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -536,8 +547,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0.48149700000000001</v>
+      <c r="B7" s="1">
+        <v>-0.48149700000000001</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -556,7 +567,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.415437</v>
       </c>
       <c r="C8">
@@ -576,7 +587,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1.44043E-2</v>
       </c>
       <c r="C9">
@@ -596,8 +607,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>5.3005400000000001E-2</v>
+      <c r="B10" s="1">
+        <v>-5.3005400000000001E-2</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -616,7 +627,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1.4348100000000001E-2</v>
       </c>
       <c r="C11">
@@ -636,7 +647,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>6.0682600000000003E-2</v>
       </c>
       <c r="C12">
@@ -656,8 +667,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1.2589400000000001E-2</v>
+      <c r="B13" s="1">
+        <v>-1.2589400000000001E-2</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -676,7 +687,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1.09689E-2</v>
       </c>
       <c r="C14">
@@ -696,8 +707,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0.13369800000000001</v>
+      <c r="B15" s="1">
+        <v>-0.13369800000000001</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -716,7 +727,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>6.3840700000000004E-3</v>
       </c>
       <c r="C16">
@@ -736,8 +747,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1.3271800000000001E-3</v>
+      <c r="B17" s="1">
+        <v>-1.3271800000000001E-3</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -756,7 +767,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0.16849600000000001</v>
       </c>
       <c r="C18">
@@ -776,8 +787,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>5.07214E-2</v>
+      <c r="B19" s="1">
+        <v>-5.07214E-2</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -796,7 +807,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>8.5455900000000001E-2</v>
       </c>
       <c r="C20">
@@ -816,8 +827,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>5.0447499999999999E-2</v>
+      <c r="B21" s="1">
+        <v>-5.0447499999999999E-2</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -836,7 +847,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>1.0465E-2</v>
       </c>
       <c r="C22">
@@ -856,8 +867,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>6.48272E-3</v>
+      <c r="B23" s="1">
+        <v>-6.48272E-3</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -876,8 +887,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>8.4172799999999992E-3</v>
+      <c r="B24" s="1">
+        <v>-8.4172799999999992E-3</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -896,7 +907,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>1.68424E-2</v>
       </c>
       <c r="C25">
@@ -916,8 +927,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>1.0229600000000001E-3</v>
+      <c r="B26" s="1">
+        <v>-1.0229600000000001E-3</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -936,8 +947,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>3.1779099999999998E-2</v>
+      <c r="B27" s="1">
+        <v>-3.1779099999999998E-2</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -956,7 +967,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>1.8603999999999999E-2</v>
       </c>
       <c r="C28">
@@ -976,8 +987,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>4.1079799999999998E-3</v>
+      <c r="B29" s="1">
+        <v>-4.1079799999999998E-3</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -996,8 +1007,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>6.06848E-4</v>
+      <c r="B30" s="1">
+        <v>-6.06848E-4</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1016,8 +1027,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>4.9819E-3</v>
+      <c r="B31" s="1">
+        <v>-4.9819E-3</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1036,7 +1047,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>2.5983E-3</v>
       </c>
       <c r="C32">
@@ -1056,8 +1067,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>5.6052800000000002E-4</v>
+      <c r="B33" s="1">
+        <v>-5.6052800000000002E-4</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1076,8 +1087,8 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>1.63652E-3</v>
+      <c r="B34" s="1">
+        <v>-1.63652E-3</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1096,8 +1107,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>3.2878699999999998E-4</v>
+      <c r="B35" s="1">
+        <v>-3.2878699999999998E-4</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1116,7 +1127,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>1.16502E-4</v>
       </c>
       <c r="C36">
@@ -1136,7 +1147,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>6.90904E-4</v>
       </c>
       <c r="C37">
@@ -1156,7 +1167,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>4.21749E-3</v>
       </c>
       <c r="C38">
@@ -1196,8 +1207,8 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>1.46564E-3</v>
+      <c r="B40" s="1">
+        <v>-1.46564E-3</v>
       </c>
       <c r="C40">
         <v>0</v>
